--- a/documents/2019_12_07_crews.xlsx
+++ b/documents/2019_12_07_crews.xlsx
@@ -474,226 +474,58 @@
       </c>
     </row>
     <row customHeight="1" ht="60" r="5" s="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>박정환</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>770123-1823021</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>경상북도 구미시 인재로 자이 아파트 7동 341호</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>010-1827-9273</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>010-3918-8123</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="6" s="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>최유임</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>660915-1823621</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>경기 부천시 도약로 27</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>010-2728-1937</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>010-8752-5362</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="7" s="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>임수혁</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>550512-1923721</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>경상남도 창원시 진해구 자은동 삼성 아파트 2동 109호</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>010-4747-8471</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>010-5927-1048</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="8" s="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>윤필묵</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>817262-1826163</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>경기도 광명시 오리로 949번길 6</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>010-5648-3832</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>010-4827-5837</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="9" s="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>최상준</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>570922-1878212</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>경북 포항시 북구 해동로 265</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>010-6727-1048</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>010-2394-2938</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="10" s="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>남우준</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>821011-1832013</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>서울특별시 충장로 대신 빌라 135호</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>010-6837-1836</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>010-9291-8414</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="11" s="1">
       <c r="A11" s="3" t="inlineStr">
@@ -703,27 +535,27 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>강대용</t>
+          <t>박정환</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>690933-1842192</t>
+          <t>770123-1823021</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>대구 중구 교동4길 25-23</t>
+          <t>경상북도 구미시 인재로 자이 아파트 7동 341호</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>010-7927-5689</t>
+          <t>010-1827-9273</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>010-4827-1048</t>
+          <t>010-3918-8123</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
@@ -740,27 +572,27 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>윤강민</t>
+          <t>최유임</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>550907-1823721</t>
+          <t>660915-1823621</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>경상남도 김해시 인의동 효성빌라 203호</t>
+          <t>경기 부천시 도약로 27</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>010-8374-3947</t>
+          <t>010-2728-1937</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>010-2495-2831</t>
+          <t>010-8752-5362</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
@@ -770,49 +602,189 @@
       </c>
     </row>
     <row customHeight="1" ht="60" r="13" s="1">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="6" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>임수혁</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>550512-1923721</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>경상남도 창원시 진해구 자은동 삼성 아파트 2동 109호</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>010-4747-8471</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>010-5927-1048</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="14" s="1">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>윤필묵</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>817262-1826163</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>경기도 광명시 오리로 949번길 6</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>010-5648-3832</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>010-4827-5837</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="15" s="1">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>최상준</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>570922-1878212</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 해동로 265</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>010-6727-1048</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>010-2394-2938</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="16" s="1">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>남우준</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>821011-1832013</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>서울특별시 충장로 대신 빌라 135호</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>010-6837-1836</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>010-9291-8414</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="17" s="1">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>강대용</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>690933-1842192</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>대구 중구 교동4길 25-23</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>010-7927-5689</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>010-4827-1048</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="18" s="1">
       <c r="A18" s="3" t="n"/>

--- a/documents/2019_12_07_crews.xlsx
+++ b/documents/2019_12_07_crews.xlsx
@@ -474,58 +474,226 @@
       </c>
     </row>
     <row customHeight="1" ht="60" r="5" s="1">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>최상준</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>570922-1878212</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>경북 포항시 북구 해동로 265</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>010-6727-1048</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>010-2394-2938</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="6" s="1">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>임수혁</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>550512-1923721</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>경상남도 창원시 진해구 자은동 삼성 아파트 2동 109호</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>010-4747-8471</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>010-5927-1048</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="7" s="1">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>박광덕</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>660313-5548452</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>경상남도 창원시 진해구</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>010-5545-4215</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>010-6597-4545</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="8" s="1">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>남우준</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>821011-1832013</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>서울특별시 충장로 대신 빌라 135호</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>010-6837-1836</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>010-9291-8414</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="9" s="1">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>박정환</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>770123-1823021</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>경상북도 구미시 인재로 자이 아파트 7동 341호</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>010-1827-9273</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>010-3918-8123</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="10" s="1">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>최유임</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>660915-1823621</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>경기 부천시 도약로 27</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>010-2728-1937</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>010-8752-5362</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="11" s="1">
       <c r="A11" s="3" t="inlineStr">
@@ -535,27 +703,27 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>박정환</t>
+          <t>윤필묵</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>770123-1823021</t>
+          <t>817262-1826163</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>경상북도 구미시 인재로 자이 아파트 7동 341호</t>
+          <t>경기도 광명시 오리로 949번길 6</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>010-1827-9273</t>
+          <t>010-5648-3832</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>010-3918-8123</t>
+          <t>010-4827-5837</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
@@ -572,27 +740,27 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>최유임</t>
+          <t>강대용</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>660915-1823621</t>
+          <t>690933-1842192</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>경기 부천시 도약로 27</t>
+          <t>대구 중구 교동4길 25-23</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>010-2728-1937</t>
+          <t>010-7927-5689</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>010-8752-5362</t>
+          <t>010-4827-1048</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
@@ -602,189 +770,49 @@
       </c>
     </row>
     <row customHeight="1" ht="60" r="13" s="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>임수혁</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>550512-1923721</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>경상남도 창원시 진해구 자은동 삼성 아파트 2동 109호</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>010-4747-8471</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>010-5927-1048</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="14" s="1">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>윤필묵</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>817262-1826163</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>경기도 광명시 오리로 949번길 6</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>010-5648-3832</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>010-4827-5837</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="15" s="1">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>최상준</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>570922-1878212</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>경북 포항시 북구 해동로 265</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>010-6727-1048</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>010-2394-2938</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="16" s="1">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>남우준</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>821011-1832013</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>서울특별시 충장로 대신 빌라 135호</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>010-6837-1836</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>010-9291-8414</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="17" s="1">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>강대용</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>690933-1842192</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>대구 중구 교동4길 25-23</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>010-7927-5689</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>010-4827-1048</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="18" s="1">
       <c r="A18" s="3" t="n"/>

--- a/documents/2019_12_07_crews.xlsx
+++ b/documents/2019_12_07_crews.xlsx
@@ -518,27 +518,27 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>임수혁</t>
+          <t>박광덕</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>550512-1923721</t>
+          <t>660313-5548452</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>경상남도 창원시 진해구 자은동 삼성 아파트 2동 109호</t>
+          <t>경상남도 창원시 진해구</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>010-4747-8471</t>
+          <t>010-5545-4215</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>010-5927-1048</t>
+          <t>010-6597-4545</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -555,27 +555,27 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>박광덕</t>
+          <t>박정환</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>660313-5548452</t>
+          <t>770123-1823021</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>경상남도 창원시 진해구</t>
+          <t>경상북도 구미시 인재로 자이 아파트 7동 341호</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>010-5545-4215</t>
+          <t>010-1827-9273</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>010-6597-4545</t>
+          <t>010-3918-8123</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
@@ -592,27 +592,27 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>남우준</t>
+          <t>최유임</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>821011-1832013</t>
+          <t>660915-1823621</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>서울특별시 충장로 대신 빌라 135호</t>
+          <t>경기 부천시 도약로 27</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>010-6837-1836</t>
+          <t>010-2728-1937</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>010-9291-8414</t>
+          <t>010-8752-5362</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -629,27 +629,27 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>박정환</t>
+          <t>윤필묵</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>770123-1823021</t>
+          <t>817262-1826163</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>경상북도 구미시 인재로 자이 아파트 7동 341호</t>
+          <t>경기도 광명시 오리로 949번길 6</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>010-1827-9273</t>
+          <t>010-5648-3832</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>010-3918-8123</t>
+          <t>010-4827-5837</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
@@ -659,115 +659,31 @@
       </c>
     </row>
     <row customHeight="1" ht="60" r="10" s="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>최유임</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>660915-1823621</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>경기 부천시 도약로 27</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>010-2728-1937</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>010-8752-5362</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="11" s="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>윤필묵</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>817262-1826163</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>경기도 광명시 오리로 949번길 6</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>010-5648-3832</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>010-4827-5837</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="12" s="1">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>강대용</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>690933-1842192</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>대구 중구 교동4길 25-23</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>010-7927-5689</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>010-4827-1048</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>선원</t>
-        </is>
-      </c>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="60" r="13" s="1">
       <c r="A13" s="3" t="n"/>

--- a/documents/2019_12_07_crews.xlsx
+++ b/documents/2019_12_07_crews.xlsx
@@ -659,22 +659,78 @@
       </c>
     </row>
     <row customHeight="1" ht="60" r="10" s="1">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>남우준</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>821011-1832013</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>서울특별시 충장로 대신 빌라 135호</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>010-6837-1836</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>010-9291-8414</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="11" s="1">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="6" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>임수혁</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>550512-1923721</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>경상남도 창원시 진해구 자은동 삼성 아파트 2동 109호</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>010-4747-8471</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>010-5927-1048</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>선원</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="60" r="12" s="1">
       <c r="A12" s="3" t="n"/>
